--- a/balanceSolesBot.xlsx
+++ b/balanceSolesBot.xlsx
@@ -270,7 +270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
@@ -594,100 +594,450 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="2" t="inlineStr">
         <is>
           <t>Fantom/USDT</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>03:09 PM</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>14/06/2024</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
         <v>1.68</v>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E38" s="2" t="inlineStr">
         <is>
           <t>Cuenta1</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="2" t="inlineStr">
         <is>
           <t>Chainlink/USDT</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>03:09 PM</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>14/06/2024</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
         <v>0.91</v>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E39" s="2" t="inlineStr">
         <is>
           <t>Cuenta1</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>Lido/USDT</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>03:09 PM</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>14/06/2024</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
         <v>0.65</v>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E40" s="2" t="inlineStr">
         <is>
           <t>Cuenta1</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="2" t="inlineStr">
         <is>
           <t>Polkadot/USDT</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>03:12 PM</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>14/06/2024</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
         <v>0.91</v>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>Cuenta1</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Polkadot/USDT</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>10:29 PM</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>Cuenta1</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>Avalanche/USDT</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>Cuenta1</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>Arbitrum/USDT</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>10:31 PM</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>Cuenta1</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>CAKE/USDT</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>10:31 PM</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>Cuenta1</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Avalanche/USDT</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>12:33 AM</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>15/06/2024</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>Cuenta1</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>Polkadot/USDT</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>12:34 AM</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>15/06/2024</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>Cuenta1</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>CAKE/USDT</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>12:34 AM</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>15/06/2024</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>Cuenta1</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>Arbitrum/USDT</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>12:36 AM</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>15/06/2024</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>Cuenta1</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>Lido/USDT</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>12:37 AM</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>15/06/2024</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>Cuenta1</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>Chainlink/USDT</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>12:38 AM</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>15/06/2024</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>Cuenta1</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>Avalanche/USDT</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>12:41 AM</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>15/06/2024</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>Cuenta1</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>CAKE/USDT</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>01:00 AM</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>15/06/2024</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Cuenta1</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Avalanche/USDT</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>01:01 AM</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>15/06/2024</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Cuenta1</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Arbitrum/USDT</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>01:03 AM</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>15/06/2024</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E55" t="inlineStr">
         <is>
           <t>Cuenta1</t>
         </is>
